--- a/biology/Médecine/Le_Syndrome_du_bocal/Le_Syndrome_du_bocal.xlsx
+++ b/biology/Médecine/Le_Syndrome_du_bocal/Le_Syndrome_du_bocal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Syndrome du bocal est un livre de Claude Pinault publié chez Buchet-Chastel en avril 2009.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 11 septembre 2005, Claude Pinault contracte un syndrome de Guillain-Barré subaigu de forme axonale très sévère.
 Claude Pinault décrit dans ce livre son combat de quatorze mois contre le syndrome de Guillain Barré et la méthode qu'il a utilisée pour vaincre cette tétraplégie douloureuse.
-Ce récit a reçu le prix Paroles de patients 2009,  le 17 novembre 2009 à Paris[1].
+Ce récit a reçu le prix Paroles de patients 2009,  le 17 novembre 2009 à Paris.
 </t>
         </is>
       </c>
